--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,15 +114,6 @@
     <x:t>habiba tarek abd elmoneim mohamed khallaf</x:t>
   </x:si>
   <x:si>
-    <x:t>1240059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رهف عمرو شفيق فريد احمد خفاجى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rahaf amr shafik faried ahmed khafagy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240196</x:t>
   </x:si>
   <x:si>
@@ -163,15 +154,6 @@
   </x:si>
   <x:si>
     <x:t>Abd El-Rahman Hany</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الله عمرو شفيق فريد احمد خفاجى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdallah Khafagy</x:t>
   </x:si>
   <x:si>
     <x:t>1240084</x:t>
@@ -440,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1115,11 +1097,9 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45907.6839061343</x:v>
+        <x:v>45907.6781269329</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1142,14 +1122,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45907.6781269329</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1181,7 +1163,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6698167824</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1213,7 +1195,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6698167824</x:v>
+        <x:v>45907.7814645486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1245,7 +1227,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7814645486</x:v>
+        <x:v>45906.6647096875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1277,7 +1259,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647096875</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1309,7 +1291,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.8458337153</x:v>
+        <x:v>45909.5232513889</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1341,7 +1323,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45914.9531279282</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1373,7 +1355,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.5232513889</x:v>
+        <x:v>45909.4180957176</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1405,7 +1387,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9531279282</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1437,7 +1419,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4180957176</x:v>
+        <x:v>45906.6672167014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1469,7 +1451,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45909.4377791319</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1483,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6672167014</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1515,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4377791319</x:v>
+        <x:v>45907.6686728009</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1547,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1579,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6686728009</x:v>
+        <x:v>45907.4212577199</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1611,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1643,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4212577199</x:v>
+        <x:v>45909.8892604167</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1675,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45906.79100625</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.8892604167</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.79100625</x:v>
+        <x:v>45917.3585699421</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1771,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45914.962737037</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1806,70 +1788,6 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45917.3585699421</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45914.962737037</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -192,15 +192,6 @@
     <x:t>Omar Essam Abotaleb Elnaggar</x:t>
   </x:si>
   <x:si>
-    <x:t>1240116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو صبري عبداللطيف ابراهيم طه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amr sabry abdullatif ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220072</x:t>
   </x:si>
   <x:si>
@@ -217,15 +208,6 @@
   </x:si>
   <x:si>
     <x:t>Kareem Atef Abdelfatah Sheta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240351</x:t>
-  </x:si>
-  <x:si>
-    <x:t>لجين محمد جاد مرشدي عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>×  Lojain Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
     <x:t>1240140</x:t>
@@ -422,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1387,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45906.6672167014</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6672167014</x:v>
+        <x:v>45909.4377791319</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4377791319</x:v>
+        <x:v>45907.6686728009</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6686728009</x:v>
+        <x:v>45907.4212577199</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4212577199</x:v>
+        <x:v>45909.8892604167</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45906.79100625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.8892604167</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.79100625</x:v>
+        <x:v>45917.3585699421</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45914.962737037</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1724,70 +1706,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45917.3585699421</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45914.962737037</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -192,6 +192,15 @@
     <x:t>Omar Essam Abotaleb Elnaggar</x:t>
   </x:si>
   <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220072</x:t>
   </x:si>
   <x:si>
@@ -208,6 +217,15 @@
   </x:si>
   <x:si>
     <x:t>Kareem Atef Abdelfatah Sheta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Algharieb</x:t>
   </x:si>
   <x:si>
     <x:t>1240140</x:t>
@@ -404,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -712,7 +730,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.610625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="49.380625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1369,7 +1387,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6672167014</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1401,7 +1419,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4377791319</x:v>
+        <x:v>45906.6672167014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1433,7 +1451,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6686728009</x:v>
+        <x:v>45909.4377791319</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1465,7 +1483,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45922.393819294</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1497,7 +1515,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4212577199</x:v>
+        <x:v>45907.6686728009</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1529,7 +1547,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1579,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.8892604167</x:v>
+        <x:v>45907.4212577199</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1611,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.79100625</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1643,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45909.8892604167</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1675,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45917.3585699421</x:v>
+        <x:v>45906.79100625</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.962737037</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1724,70 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45917.3585699421</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45914.962737037</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -217,15 +217,6 @@
   </x:si>
   <x:si>
     <x:t>Kareem Atef Abdelfatah Sheta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Algharieb</x:t>
   </x:si>
   <x:si>
     <x:t>1240140</x:t>
@@ -422,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1483,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45922.393819294</x:v>
+        <x:v>45907.6686728009</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6686728009</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45907.4212577199</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4212577199</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45909.8892604167</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.8892604167</x:v>
+        <x:v>45906.79100625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.79100625</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45917.3585699421</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45917.3585699421</x:v>
+        <x:v>45914.962737037</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1756,38 +1747,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45914.962737037</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -156,15 +156,6 @@
     <x:t>Abd El-Rahman Hany</x:t>
   </x:si>
   <x:si>
-    <x:t>1240084</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد حسن محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240236</x:t>
   </x:si>
   <x:si>
@@ -199,6 +190,15 @@
   </x:si>
   <x:si>
     <x:t>omar mohamed salaheldeen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر هانى محمد حسن محمد سعيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hani Mohammed Hassan Mohammed Saeed</x:t>
   </x:si>
   <x:si>
     <x:t>1220072</x:t>
@@ -1250,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45909.5232513889</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1282,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.5232513889</x:v>
+        <x:v>45914.9531279282</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9531279282</x:v>
+        <x:v>45909.4180957176</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4180957176</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45922.4392584143</x:v>
+        <x:v>45924.5813003819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed essam ahmed mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وليد محمد نبيه فرج حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Waleed Mohamed Nabih</x:t>
   </x:si>
   <x:si>
     <x:t>1240021</x:t>
@@ -413,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -900,7 +909,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6664052431</x:v>
+        <x:v>45925.3598608449</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6651198264</x:v>
+        <x:v>45907.6664052431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4155006597</x:v>
+        <x:v>45906.6651198264</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6663350694</x:v>
+        <x:v>45907.4155006597</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6657890046</x:v>
+        <x:v>45907.6663350694</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6674490741</x:v>
+        <x:v>45906.6657890046</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1088,9 +1097,11 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6781269329</x:v>
+        <x:v>45907.6674490741</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1113,16 +1124,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6781269329</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1154,7 +1163,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6698167824</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1186,7 +1195,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.7814645486</x:v>
+        <x:v>45907.6698167824</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1218,7 +1227,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647096875</x:v>
+        <x:v>45907.7814645486</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1250,7 +1259,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.5232513889</x:v>
+        <x:v>45906.6647096875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1282,7 +1291,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9531279282</x:v>
+        <x:v>45909.5232513889</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1323,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4180957176</x:v>
+        <x:v>45914.9531279282</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1355,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45922.4392584143</x:v>
+        <x:v>45909.4180957176</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1387,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45924.5813003819</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1419,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6672167014</x:v>
+        <x:v>45924.5813003819</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1451,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4377791319</x:v>
+        <x:v>45906.6672167014</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1483,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6686728009</x:v>
+        <x:v>45909.4377791319</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1515,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45907.6686728009</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4212577199</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45907.4212577199</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.8892604167</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.79100625</x:v>
+        <x:v>45909.8892604167</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45906.79100625</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45917.3585699421</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.962737037</x:v>
+        <x:v>45917.3585699421</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1747,6 +1756,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45914.962737037</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -138,15 +138,6 @@
     <x:t>Salma Amr Galaleldin Ahmed Wassal</x:t>
   </x:si>
   <x:si>
-    <x:t>1240073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240324</x:t>
   </x:si>
   <x:si>
@@ -228,6 +219,12 @@
     <x:t>Kareem Atef Abdelfatah Sheta</x:t>
   </x:si>
   <x:si>
+    <x:t>4240046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد شعبان محمد صالح</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240140</x:t>
   </x:si>
   <x:si>
@@ -255,6 +252,15 @@
     <x:t>Mahmoud mohamed Ahmed fares</x:t>
   </x:si>
   <x:si>
+    <x:t>1240268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي ايمن السيد إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Ayman ElSayed Ibrahim Shahin</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220283</x:t>
   </x:si>
   <x:si>
@@ -289,6 +295,15 @@
   </x:si>
   <x:si>
     <x:t>nour mohamed ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا محمد ابراهيم محمود بليطه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Mohamed Ibrahim Mahmoud Balita</x:t>
   </x:si>
   <x:si>
     <x:t>4250202</x:t>
@@ -422,7 +437,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +737,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -941,7 +956,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6664052431</x:v>
+        <x:v>45927.4172315162</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1195,7 +1210,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6698167824</x:v>
+        <x:v>45907.7814645486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1227,7 +1242,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7814645486</x:v>
+        <x:v>45906.6647096875</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1259,7 +1274,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647096875</x:v>
+        <x:v>45909.5232513889</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1291,7 +1306,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.5232513889</x:v>
+        <x:v>45914.9531279282</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1323,7 +1338,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9531279282</x:v>
+        <x:v>45909.4180957176</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1355,7 +1370,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4180957176</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,7 +1402,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45922.4392584143</x:v>
+        <x:v>45924.5813003819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,7 +1434,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45924.5813003819</x:v>
+        <x:v>45906.6672167014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1466,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6672167014</x:v>
+        <x:v>45909.4377791319</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,11 +1494,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45909.4377791319</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,13 +1519,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45907.6686728009</x:v>
@@ -1538,16 +1551,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45927.4181685185</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,13 +1583,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.4212577199</x:v>
@@ -1602,16 +1615,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45927.3065386227</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,16 +1647,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.8892604167</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,16 +1679,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.79100625</x:v>
+        <x:v>45909.8892604167</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,16 +1711,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45906.79100625</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,16 +1743,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45917.3585699421</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1762,16 +1775,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.962737037</x:v>
+        <x:v>45927.4888289352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1788,6 +1801,70 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45927.4470596412</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45914.962737037</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Ahmed essam ahmed mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1240287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد وليد محمد نبيه فرج حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Waleed Mohamed Nabih</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240021</x:t>
   </x:si>
   <x:si>
@@ -78,6 +69,15 @@
     <x:t>Ahmed Yasser Mohamed Ahmed mansour</x:t>
   </x:si>
   <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220040</x:t>
   </x:si>
   <x:si>
@@ -223,6 +223,15 @@
   </x:si>
   <x:si>
     <x:t>محمد شعبان محمد صالح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد صلاح الدين مصطفى عبدالحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed salah eldin mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240140</x:t>
@@ -437,7 +446,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -737,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -924,7 +933,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45925.3598608449</x:v>
+        <x:v>45927.4172315162</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4172315162</x:v>
+        <x:v>45927.7997645023</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1496,7 +1505,7 @@
       </x:c>
       <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45927.9578262731</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1528,7 +1537,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6686728009</x:v>
+        <x:v>45927.8920425579</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1560,7 +1569,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4181685185</x:v>
+        <x:v>45907.6686728009</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1592,7 +1601,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4212577199</x:v>
+        <x:v>45927.4181685185</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1624,7 +1633,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.3065386227</x:v>
+        <x:v>45907.4212577199</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1656,7 +1665,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45927.3065386227</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1688,7 +1697,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.8892604167</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1720,7 +1729,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.79100625</x:v>
+        <x:v>45909.8892604167</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1752,7 +1761,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45906.79100625</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1784,7 +1793,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.4888289352</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1816,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.4470596412</x:v>
+        <x:v>45927.4888289352</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1848,7 +1857,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.962737037</x:v>
+        <x:v>45927.4470596412</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1866,6 +1875,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45914.962737037</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1878,6 +1919,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of  Economics and Accounting (GENS120) Location : [20109]20109-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -123,6 +123,15 @@
     <x:t>habiba tarek abd elmoneim mohamed khallaf</x:t>
   </x:si>
   <x:si>
+    <x:t>1240058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رغد احمد مصطفى محمد الموافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raghad Ahmed Mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240196</x:t>
   </x:si>
   <x:si>
@@ -181,15 +190,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Essam Abotaleb Elnaggar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>4250208</x:t>
@@ -754,7 +754,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.610625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="49.380625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -965,7 +965,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.7997645023</x:v>
+        <x:v>45928.4057802083</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1153,9 +1153,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6781269329</x:v>
+        <x:v>45928.2791438657</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1178,16 +1180,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6781269329</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1219,7 +1219,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.7814645486</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1251,7 +1251,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647096875</x:v>
+        <x:v>45907.7814645486</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1283,7 +1283,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.5232513889</x:v>
+        <x:v>45906.6647096875</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1315,7 +1315,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9531279282</x:v>
+        <x:v>45909.5232513889</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1347,7 +1347,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4180957176</x:v>
+        <x:v>45914.9531279282</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1379,7 +1379,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45922.4392584143</x:v>
+        <x:v>45909.4180957176</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -145,6 +145,15 @@
   </x:si>
   <x:si>
     <x:t>Salma Amr Galaleldin Ahmed Wassal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240324</x:t>
@@ -446,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -746,7 +755,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1251,7 +1260,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7814645486</x:v>
+        <x:v>45928.6991247685</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647096875</x:v>
+        <x:v>45907.7814645486</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.5232513889</x:v>
+        <x:v>45906.6647096875</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9531279282</x:v>
+        <x:v>45909.5232513889</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4180957176</x:v>
+        <x:v>45914.9531279282</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45924.5813003819</x:v>
+        <x:v>45909.4180957176</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6672167014</x:v>
+        <x:v>45924.5813003819</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4377791319</x:v>
+        <x:v>45906.6672167014</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1503,9 +1512,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.9578262731</x:v>
+        <x:v>45909.4377791319</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1528,16 +1539,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45927.8920425579</x:v>
+        <x:v>45927.9578262731</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1569,7 +1578,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6686728009</x:v>
+        <x:v>45927.8920425579</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1601,7 +1610,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4181685185</x:v>
+        <x:v>45907.6686728009</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1633,7 +1642,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4212577199</x:v>
+        <x:v>45927.4181685185</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1665,7 +1674,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.3065386227</x:v>
+        <x:v>45907.4212577199</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1697,7 +1706,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45927.3065386227</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1729,7 +1738,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.8892604167</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1761,7 +1770,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.79100625</x:v>
+        <x:v>45909.8892604167</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1793,7 +1802,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45906.79100625</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.4888289352</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4470596412</x:v>
+        <x:v>45927.4888289352</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.962737037</x:v>
+        <x:v>45927.4470596412</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1906,6 +1915,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45914.962737037</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -234,15 +234,6 @@
     <x:t>محمد شعبان محمد صالح</x:t>
   </x:si>
   <x:si>
-    <x:t>1220082</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد صلاح الدين مصطفى عبدالحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed salah eldin mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240140</x:t>
   </x:si>
   <x:si>
@@ -250,15 +241,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hesham Mohamed Abdelrahman Selim Ataia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود حماده حليم صالح الحوت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Hamada Halim Saleh Elhout</x:t>
   </x:si>
   <x:si>
     <x:t>1220198</x:t>
@@ -455,7 +437,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -755,7 +737,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1578,7 +1560,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.8920425579</x:v>
+        <x:v>45907.6686728009</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1610,7 +1592,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6686728009</x:v>
+        <x:v>45907.4212577199</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1642,7 +1624,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4181685185</x:v>
+        <x:v>45927.3065386227</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1674,7 +1656,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4212577199</x:v>
+        <x:v>45907.4168425926</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1706,7 +1688,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.3065386227</x:v>
+        <x:v>45909.8892604167</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1738,7 +1720,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4168425926</x:v>
+        <x:v>45906.79100625</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1770,7 +1752,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.8892604167</x:v>
+        <x:v>45906.6841950579</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1802,7 +1784,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.79100625</x:v>
+        <x:v>45927.4888289352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1834,7 +1816,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45927.4470596412</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1866,7 +1848,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4888289352</x:v>
+        <x:v>45914.962737037</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1884,70 +1866,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45927.4470596412</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45914.962737037</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1960,9 +1878,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Fundamentals of  Economics and Accounting (GENS120) Location : [20109]20109-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -231,7 +231,10 @@
     <x:t>4240046</x:t>
   </x:si>
   <x:si>
-    <x:t>محمد شعبان محمد صالح</x:t>
+    <x:t>محمد شعبان محمد صالح حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed shabaan mohamed saleh hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240140</x:t>
@@ -1526,7 +1529,9 @@
       <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="E24" s="3">
         <x:v>45927.9578262731</x:v>
       </x:c>
@@ -1551,13 +1556,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.6686728009</x:v>
@@ -1583,13 +1588,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.4212577199</x:v>
@@ -1615,13 +1620,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45927.3065386227</x:v>
@@ -1647,13 +1652,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45907.4168425926</x:v>
@@ -1679,13 +1684,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45909.8892604167</x:v>
@@ -1711,13 +1716,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45906.79100625</x:v>
@@ -1743,13 +1748,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45906.6841950579</x:v>
@@ -1775,13 +1780,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45927.4888289352</x:v>
@@ -1807,13 +1812,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45927.4470596412</x:v>
@@ -1839,13 +1844,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45914.962737037</x:v>

--- a/downloaded_files/GENS120_Lecture-35037.xlsx
+++ b/downloaded_files/GENS120_Lecture-35037.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -289,15 +289,6 @@
   </x:si>
   <x:si>
     <x:t>Moussa Hossam Mohamed Abdelsalam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور محمد إبراهيم محمد سعد غرابة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nour mohamed ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>4250198</x:t>
@@ -440,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1757,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6841950579</x:v>
+        <x:v>45927.4888289352</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.4888289352</x:v>
+        <x:v>45927.4470596412</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.4470596412</x:v>
+        <x:v>45914.962737037</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1838,38 +1829,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45914.962737037</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
